--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0001599494722622408</v>
+        <v>0.009455353296505837</v>
       </c>
       <c r="E2">
-        <v>0.0001599494722622408</v>
+        <v>0.009455353296505837</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0002092895405340149</v>
+        <v>0.0009150812438297632</v>
       </c>
       <c r="E3">
-        <v>0.0002092895405340149</v>
+        <v>0.0009150812438297632</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6.67810278920777E-09</v>
+        <v>1.688933277629765E-08</v>
       </c>
       <c r="E4">
-        <v>6.67810278920777E-09</v>
+        <v>1.688933277629765E-08</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.329988066925241E-14</v>
+        <v>6.016853034582032E-11</v>
       </c>
       <c r="E5">
-        <v>4.329988066925241E-14</v>
+        <v>6.016853034582032E-11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.01327620793233784</v>
+        <v>0.001715415848908873</v>
       </c>
       <c r="E6">
-        <v>0.01327620793233784</v>
+        <v>0.001715415848908873</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999931</v>
+        <v>0.9999999946319897</v>
       </c>
       <c r="E7">
-        <v>6.883382752675971E-15</v>
+        <v>5.368010258521849E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.002443850265112205</v>
+        <v>0.02650235480815785</v>
       </c>
       <c r="E8">
-        <v>0.9975561497348878</v>
+        <v>0.9734976451918421</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9978399882006143</v>
+        <v>0.7004916149084555</v>
       </c>
       <c r="E9">
-        <v>0.002160011799385742</v>
+        <v>0.2995083850915445</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.220446049250313E-16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999475245677</v>
+        <v>0.9999998762598301</v>
       </c>
       <c r="E11">
-        <v>5.247543233277696E-08</v>
+        <v>1.237401698883644E-07</v>
       </c>
       <c r="F11">
-        <v>0.6030077338218689</v>
+        <v>0.3998626172542572</v>
       </c>
       <c r="G11">
         <v>0.9</v>
